--- a/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/Critical minerals advanced projects, mines and processing facilities.xlsx
+++ b/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/Critical minerals advanced projects, mines and processing facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/canada_metal_sustainability_db/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_03C52D3BACC0B63B03E604F054FFD21F62EE5B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{124A61F2-48EF-4299-A055-CDCB57CC907E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_03C52D3BACC0B63B03E604F054FFD21F62EE5B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D08F432-35AD-423C-83A3-56F27D6900D6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="critical_minerals" sheetId="1" r:id="rId1"/>
@@ -4283,7 +4283,7 @@
   <dimension ref="A1:T271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4361,7 +4361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>69</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>115</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>56</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>62</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>79</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>66</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>95</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>192</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>217</v>
       </c>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -5198,28 +5198,28 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
@@ -5234,19 +5234,19 @@
         <v>29</v>
       </c>
       <c r="P16">
-        <v>50.429099999999998</v>
+        <v>51.930619999999998</v>
       </c>
       <c r="Q16">
-        <v>-95.450199999999995</v>
+        <v>-106.068974</v>
       </c>
       <c r="R16" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="S16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>119</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>204</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>94</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>71</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>144</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>165</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>193</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>205</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>103</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>209</v>
       </c>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -5906,28 +5906,28 @@
         <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
@@ -5942,21 +5942,21 @@
         <v>29</v>
       </c>
       <c r="P28">
-        <v>55.118000000000002</v>
+        <v>49.252519999999997</v>
       </c>
       <c r="Q28">
-        <v>-124.03100000000001</v>
+        <v>-109.52307999999999</v>
       </c>
       <c r="R28" t="s">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -5965,28 +5965,28 @@
         <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
         <v>20</v>
@@ -6001,19 +6001,19 @@
         <v>29</v>
       </c>
       <c r="P29">
-        <v>49.331000000000003</v>
+        <v>49.169640000000001</v>
       </c>
       <c r="Q29">
-        <v>-120.533</v>
+        <v>-109.40412000000001</v>
       </c>
       <c r="R29" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="S29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>84</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>121</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>124</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>141</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>152</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>188</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>189</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>269</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>102</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>221</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>134</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>114</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>236</v>
       </c>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -6791,28 +6791,28 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="F43" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="G43" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="K43" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="L43" t="s">
         <v>20</v>
@@ -6827,21 +6827,21 @@
         <v>29</v>
       </c>
       <c r="P43">
-        <v>52.528494999999999</v>
+        <v>49.433700000000002</v>
       </c>
       <c r="Q43">
-        <v>-122.28716</v>
+        <v>-109.429</v>
       </c>
       <c r="R43" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="S43" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -6850,28 +6850,28 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="G44" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s">
         <v>20</v>
@@ -6886,19 +6886,19 @@
         <v>29</v>
       </c>
       <c r="P44">
-        <v>46.638058999999998</v>
+        <v>50.435625999999999</v>
       </c>
       <c r="Q44">
-        <v>-81.398939999999996</v>
+        <v>-105.181423</v>
       </c>
       <c r="R44" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="S44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>253</v>
       </c>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -6968,28 +6968,28 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="G46" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="K46" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="L46" t="s">
         <v>20</v>
@@ -7004,19 +7004,19 @@
         <v>29</v>
       </c>
       <c r="P46">
-        <v>50.485500000000002</v>
+        <v>50.629170000000002</v>
       </c>
       <c r="Q46">
-        <v>-121.0483</v>
+        <v>-105.26167</v>
       </c>
       <c r="R46" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="S46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>130</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>180</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>151</v>
       </c>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -7204,28 +7204,28 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="G50" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s">
         <v>20</v>
@@ -7240,19 +7240,19 @@
         <v>29</v>
       </c>
       <c r="P50">
-        <v>48.689399999999999</v>
+        <v>49.770200000000003</v>
       </c>
       <c r="Q50">
-        <v>-81.37</v>
+        <v>-107.408</v>
       </c>
       <c r="R50" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="S50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>63</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>72</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>112</v>
       </c>
@@ -7431,7 +7431,7 @@
     </row>
     <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -7440,28 +7440,28 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="K54" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="L54" t="s">
         <v>20</v>
@@ -7476,19 +7476,19 @@
         <v>29</v>
       </c>
       <c r="P54">
-        <v>54.886349000000003</v>
+        <v>58.068190000000001</v>
       </c>
       <c r="Q54">
-        <v>-100.024002</v>
+        <v>-104.54123</v>
       </c>
       <c r="R54" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="S54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>85</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>125</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>202</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>258</v>
       </c>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -7735,28 +7735,28 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="G59" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I59" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="J59" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="L59" t="s">
         <v>20</v>
@@ -7771,21 +7771,21 @@
         <v>29</v>
       </c>
       <c r="P59">
-        <v>52.544958999999999</v>
+        <v>46.495821999999997</v>
       </c>
       <c r="Q59">
-        <v>-121.633931</v>
+        <v>-81.056781999999998</v>
       </c>
       <c r="R59" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="S59" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -7794,28 +7794,28 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="G60" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I60" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="J60" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="L60" t="s">
         <v>20</v>
@@ -7830,21 +7830,21 @@
         <v>29</v>
       </c>
       <c r="P60">
-        <v>50.661000000000001</v>
+        <v>46.677100000000003</v>
       </c>
       <c r="Q60">
-        <v>-120.514</v>
+        <v>-81.339699999999993</v>
       </c>
       <c r="R60" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="S60" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -7853,28 +7853,28 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="H61" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I61" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="J61" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="L61" t="s">
         <v>20</v>
@@ -7889,19 +7889,19 @@
         <v>29</v>
       </c>
       <c r="P61">
-        <v>57.7</v>
+        <v>46.491444999999999</v>
       </c>
       <c r="Q61">
-        <v>-129.78333000000001</v>
+        <v>-81.068205000000006</v>
       </c>
       <c r="R61" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="S61" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>256</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>135</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>149</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>132</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>229</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>147</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>117</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>120</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>162</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>148</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>108</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>222</v>
       </c>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -8679,10 +8679,10 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E75" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F75" t="s">
         <v>93</v>
@@ -8691,16 +8691,16 @@
         <v>93</v>
       </c>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I75" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="J75" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="K75" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="L75" t="s">
         <v>20</v>
@@ -8715,21 +8715,21 @@
         <v>29</v>
       </c>
       <c r="P75">
-        <v>54.856920000000002</v>
+        <v>49.331000000000003</v>
       </c>
       <c r="Q75">
-        <v>-99.945099999999996</v>
+        <v>-120.533</v>
       </c>
       <c r="R75" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S75" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -8738,28 +8738,28 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="J76" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="K76" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L76" t="s">
         <v>20</v>
@@ -8774,19 +8774,19 @@
         <v>29</v>
       </c>
       <c r="P76">
-        <v>54.866669999999999</v>
+        <v>52.092027000000002</v>
       </c>
       <c r="Q76">
-        <v>-100.13333</v>
+        <v>-106.859358</v>
       </c>
       <c r="R76" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="S76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>82</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>140</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>252</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>255</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>265</v>
       </c>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -9092,28 +9092,28 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I82" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J82" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="K82" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s">
         <v>20</v>
@@ -9128,21 +9128,21 @@
         <v>29</v>
       </c>
       <c r="P82">
-        <v>48.251600000000003</v>
+        <v>46.473999999999997</v>
       </c>
       <c r="Q82">
-        <v>-78.427999999999997</v>
+        <v>-81.186099999999996</v>
       </c>
       <c r="R82" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="S82" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -9151,28 +9151,28 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="E83" t="s">
-        <v>148</v>
+        <v>252</v>
       </c>
       <c r="F83" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="G83" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I83" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J83" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="K83" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="L83" t="s">
         <v>20</v>
@@ -9187,19 +9187,19 @@
         <v>29</v>
       </c>
       <c r="P83">
-        <v>46.375300000000003</v>
+        <v>49.46264</v>
       </c>
       <c r="Q83">
-        <v>-75.535700000000006</v>
+        <v>-108.91001</v>
       </c>
       <c r="R83" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="S83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>87</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>96</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>154</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>156</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>159</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>174</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>177</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>179</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>185</v>
       </c>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -9741,16 +9741,16 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="E93" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="F93" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G93" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="H93" t="s">
         <v>42</v>
@@ -9759,10 +9759,10 @@
         <v>42</v>
       </c>
       <c r="J93" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="K93" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="L93" t="s">
         <v>20</v>
@@ -9777,21 +9777,21 @@
         <v>29</v>
       </c>
       <c r="P93">
-        <v>49.252519999999997</v>
+        <v>50.659914000000001</v>
       </c>
       <c r="Q93">
-        <v>-109.52307999999999</v>
+        <v>-101.845218</v>
       </c>
       <c r="R93" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="S93" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -9800,28 +9800,28 @@
         <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="G94" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="H94" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J94" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="K94" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="L94" t="s">
         <v>20</v>
@@ -9836,21 +9836,21 @@
         <v>29</v>
       </c>
       <c r="P94">
-        <v>49.169640000000001</v>
+        <v>46.6633</v>
       </c>
       <c r="Q94">
-        <v>-109.40412000000001</v>
+        <v>-81.340400000000002</v>
       </c>
       <c r="R94" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="S94" t="s">
-        <v>247</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -9859,28 +9859,28 @@
         <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="E95" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="H95" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I95" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="K95" t="s">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="L95" t="s">
         <v>20</v>
@@ -9895,21 +9895,21 @@
         <v>29</v>
       </c>
       <c r="P95">
-        <v>49.433700000000002</v>
+        <v>46.567999999999998</v>
       </c>
       <c r="Q95">
-        <v>-109.429</v>
+        <v>-80.856999999999999</v>
       </c>
       <c r="R95" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="S95" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -9918,28 +9918,28 @@
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="E96" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="F96" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="H96" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J96" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="K96" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="L96" t="s">
         <v>20</v>
@@ -9954,21 +9954,21 @@
         <v>29</v>
       </c>
       <c r="P96">
-        <v>49.770200000000003</v>
+        <v>52.528494999999999</v>
       </c>
       <c r="Q96">
-        <v>-107.408</v>
+        <v>-122.28716</v>
       </c>
       <c r="R96" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="S96" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -9977,28 +9977,28 @@
         <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="E97" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="F97" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="G97" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="H97" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J97" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="K97" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="L97" t="s">
         <v>20</v>
@@ -10013,21 +10013,21 @@
         <v>29</v>
       </c>
       <c r="P97">
-        <v>49.46264</v>
+        <v>50.485500000000002</v>
       </c>
       <c r="Q97">
-        <v>-108.91001</v>
+        <v>-121.0483</v>
       </c>
       <c r="R97" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="S97" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -10036,28 +10036,28 @@
         <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="E98" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="F98" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="J98" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="K98" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="L98" t="s">
         <v>20</v>
@@ -10072,21 +10072,21 @@
         <v>29</v>
       </c>
       <c r="P98">
-        <v>49.372959999999999</v>
+        <v>63.916699999999999</v>
       </c>
       <c r="Q98">
-        <v>-107.01266</v>
+        <v>-135.48330000000001</v>
       </c>
       <c r="R98" t="s">
-        <v>244</v>
+        <v>90</v>
       </c>
       <c r="S98" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -10095,28 +10095,28 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="E99" t="s">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="H99" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="I99" t="s">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="J99" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="K99" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="L99" t="s">
         <v>20</v>
@@ -10131,21 +10131,21 @@
         <v>29</v>
       </c>
       <c r="P99">
-        <v>49.070095000000002</v>
+        <v>57.207000000000001</v>
       </c>
       <c r="Q99">
-        <v>-111.43361299999999</v>
+        <v>-105.64700000000001</v>
       </c>
       <c r="R99" t="s">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="S99" t="s">
-        <v>261</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -10154,28 +10154,28 @@
         <v>20</v>
       </c>
       <c r="D100" t="s">
-        <v>262</v>
+        <v>69</v>
       </c>
       <c r="E100" t="s">
-        <v>262</v>
+        <v>69</v>
       </c>
       <c r="F100" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="G100" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="H100" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I100" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J100" t="s">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="K100" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="L100" t="s">
         <v>20</v>
@@ -10190,19 +10190,19 @@
         <v>29</v>
       </c>
       <c r="P100">
-        <v>50.415430000000001</v>
+        <v>48.689399999999999</v>
       </c>
       <c r="Q100">
-        <v>-107.86933000000001</v>
+        <v>-81.37</v>
       </c>
       <c r="R100" t="s">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="S100" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>247</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>267</v>
       </c>
@@ -10322,7 +10322,7 @@
     </row>
     <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
@@ -10331,28 +10331,28 @@
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="E103" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="F103" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="G103" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="H103" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="J103" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="K103" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="L103" t="s">
         <v>20</v>
@@ -10367,19 +10367,19 @@
         <v>29</v>
       </c>
       <c r="P103">
-        <v>50.554099999999998</v>
+        <v>49.070095000000002</v>
       </c>
       <c r="Q103">
-        <v>-63.415999999999997</v>
+        <v>-111.43361299999999</v>
       </c>
       <c r="R103" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="S103" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>158</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>191</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>122</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>126</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>178</v>
       </c>
@@ -10676,7 +10676,7 @@
     </row>
     <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -10685,28 +10685,28 @@
         <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="F109" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="G109" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="H109" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J109" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="K109" t="s">
-        <v>182</v>
+        <v>114</v>
       </c>
       <c r="L109" t="s">
         <v>20</v>
@@ -10721,19 +10721,19 @@
         <v>29</v>
       </c>
       <c r="P109">
-        <v>48.411499999999997</v>
+        <v>49.1691</v>
       </c>
       <c r="Q109">
-        <v>-77.809340000000006</v>
+        <v>-89.610500000000002</v>
       </c>
       <c r="R109" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="S109" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>166</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>92</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>127</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>175</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>220</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>223</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>90</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>123</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>138</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>190</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>241</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>244</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>262</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>232</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>211</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>214</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>197</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>249</v>
       </c>
@@ -11797,7 +11797,7 @@
     </row>
     <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -11806,28 +11806,28 @@
         <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="H128" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J128" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="K128" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="L128" t="s">
         <v>20</v>
@@ -11842,19 +11842,19 @@
         <v>29</v>
       </c>
       <c r="P128">
-        <v>50.788699999999999</v>
+        <v>50.554099999999998</v>
       </c>
       <c r="Q128">
-        <v>-115.68300000000001</v>
+        <v>-63.415999999999997</v>
       </c>
       <c r="R128" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="S128" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>89</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>109</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>226</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>73</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>242</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>113</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>93</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>266</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>116</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>167</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>91</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>106</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>187</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>81</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>107</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>68</v>
       </c>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -12809,28 +12809,28 @@
         <v>20</v>
       </c>
       <c r="D145" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="F145" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="G145" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="H145" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="I145" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="J145" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="K145" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="L145" t="s">
         <v>20</v>
@@ -12845,19 +12845,19 @@
         <v>29</v>
       </c>
       <c r="P145">
-        <v>55.715200000000003</v>
+        <v>46.375300000000003</v>
       </c>
       <c r="Q145">
-        <v>-97.844399999999993</v>
+        <v>-75.535700000000006</v>
       </c>
       <c r="R145" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="S145" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>257</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>110</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>99</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>160</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>227</v>
       </c>
@@ -13154,7 +13154,7 @@
     </row>
     <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -13163,28 +13163,28 @@
         <v>20</v>
       </c>
       <c r="D151" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="E151" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="F151" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="G151" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="H151" t="s">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="I151" t="s">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c r="J151" t="s">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="K151" t="s">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c r="L151" t="s">
         <v>20</v>
@@ -13199,19 +13199,19 @@
         <v>29</v>
       </c>
       <c r="P151">
-        <v>56.331659000000002</v>
+        <v>54.866669999999999</v>
       </c>
       <c r="Q151">
-        <v>-62.090854999999998</v>
+        <v>-100.13333</v>
       </c>
       <c r="R151" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="S151" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>80</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>142</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>168</v>
       </c>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B155" t="s">
         <v>20</v>
@@ -13399,28 +13399,28 @@
         <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="F155" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="G155" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="H155" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I155" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J155" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="K155" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="L155" t="s">
         <v>20</v>
@@ -13435,19 +13435,19 @@
         <v>29</v>
       </c>
       <c r="P155">
-        <v>46.657981999999997</v>
+        <v>51.853043999999997</v>
       </c>
       <c r="Q155">
-        <v>-80.796792999999994</v>
+        <v>-105.205794</v>
       </c>
       <c r="R155" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="S155" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>146</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>207</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>260</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>171</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>118</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>243</v>
       </c>
@@ -13862,7 +13862,7 @@
     </row>
     <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B163" t="s">
         <v>20</v>
@@ -13871,16 +13871,16 @@
         <v>20</v>
       </c>
       <c r="D163" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G163" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H163" t="s">
         <v>24</v>
@@ -13889,10 +13889,10 @@
         <v>25</v>
       </c>
       <c r="J163" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="K163" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L163" t="s">
         <v>20</v>
@@ -13907,21 +13907,21 @@
         <v>29</v>
       </c>
       <c r="P163">
-        <v>61.420856000000001</v>
+        <v>48.251600000000003</v>
       </c>
       <c r="Q163">
-        <v>-74.137500000000003</v>
+        <v>-78.427999999999997</v>
       </c>
       <c r="R163" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="S163" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -13930,28 +13930,28 @@
         <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="E164" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="F164" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="G164" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="H164" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I164" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J164" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="K164" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="L164" t="s">
         <v>20</v>
@@ -13966,21 +13966,21 @@
         <v>29</v>
       </c>
       <c r="P164">
-        <v>46.6633</v>
+        <v>49.372959999999999</v>
       </c>
       <c r="Q164">
-        <v>-81.340400000000002</v>
+        <v>-107.01266</v>
       </c>
       <c r="R164" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="S164" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
         <v>20</v>
@@ -13989,28 +13989,28 @@
         <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="E165" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="F165" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="H165" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I165" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J165" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="K165" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="L165" t="s">
         <v>20</v>
@@ -14025,21 +14025,21 @@
         <v>29</v>
       </c>
       <c r="P165">
-        <v>46.381174000000001</v>
+        <v>57.7637</v>
       </c>
       <c r="Q165">
-        <v>-81.454839000000007</v>
+        <v>-105.053</v>
       </c>
       <c r="R165" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="S165" t="s">
-        <v>231</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
@@ -14048,28 +14048,28 @@
         <v>20</v>
       </c>
       <c r="D166" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="F166" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="G166" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="H166" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I166" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J166" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="K166" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="L166" t="s">
         <v>20</v>
@@ -14084,21 +14084,21 @@
         <v>29</v>
       </c>
       <c r="P166">
-        <v>46.673400000000001</v>
+        <v>58.347200000000001</v>
       </c>
       <c r="Q166">
-        <v>-81.342699999999994</v>
+        <v>-103.8361</v>
       </c>
       <c r="R166" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="S166" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
@@ -14107,16 +14107,16 @@
         <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="E167" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="F167" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="G167" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="H167" t="s">
         <v>64</v>
@@ -14125,10 +14125,10 @@
         <v>64</v>
       </c>
       <c r="J167" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="K167" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="L167" t="s">
         <v>20</v>
@@ -14143,21 +14143,21 @@
         <v>29</v>
       </c>
       <c r="P167">
-        <v>46.495821999999997</v>
+        <v>46.638058999999998</v>
       </c>
       <c r="Q167">
-        <v>-81.056781999999998</v>
+        <v>-81.398939999999996</v>
       </c>
       <c r="R167" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="S167" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
@@ -14166,28 +14166,28 @@
         <v>20</v>
       </c>
       <c r="D168" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="E168" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H168" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I168" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J168" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="K168" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="L168" t="s">
         <v>20</v>
@@ -14202,21 +14202,21 @@
         <v>29</v>
       </c>
       <c r="P168">
-        <v>46.677100000000003</v>
+        <v>50.788699999999999</v>
       </c>
       <c r="Q168">
-        <v>-81.339699999999993</v>
+        <v>-115.68300000000001</v>
       </c>
       <c r="R168" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="S168" t="s">
-        <v>215</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
@@ -14225,28 +14225,28 @@
         <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="E169" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="F169" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="G169" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="H169" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I169" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J169" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="K169" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="L169" t="s">
         <v>20</v>
@@ -14261,21 +14261,21 @@
         <v>29</v>
       </c>
       <c r="P169">
-        <v>46.491444999999999</v>
+        <v>55.118000000000002</v>
       </c>
       <c r="Q169">
-        <v>-81.068205000000006</v>
+        <v>-124.03100000000001</v>
       </c>
       <c r="R169" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="S169" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -14284,28 +14284,28 @@
         <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="E170" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="F170" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="G170" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="H170" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I170" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J170" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K170" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="L170" t="s">
         <v>20</v>
@@ -14320,21 +14320,21 @@
         <v>29</v>
       </c>
       <c r="P170">
-        <v>46.473999999999997</v>
+        <v>52.544958999999999</v>
       </c>
       <c r="Q170">
-        <v>-81.186099999999996</v>
+        <v>-121.633931</v>
       </c>
       <c r="R170" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="S170" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -14343,28 +14343,28 @@
         <v>20</v>
       </c>
       <c r="D171" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E171" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="F171" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="G171" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="H171" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I171" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="J171" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="K171" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="L171" t="s">
         <v>20</v>
@@ -14379,19 +14379,19 @@
         <v>29</v>
       </c>
       <c r="P171">
-        <v>46.567999999999998</v>
+        <v>50.661000000000001</v>
       </c>
       <c r="Q171">
-        <v>-80.856999999999999</v>
+        <v>-120.514</v>
       </c>
       <c r="R171" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="S171" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>203</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>105</v>
       </c>
@@ -14511,7 +14511,7 @@
     </row>
     <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
@@ -14520,28 +14520,28 @@
         <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E174" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="F174" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G174" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="H174" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I174" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="J174" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="K174" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="L174" t="s">
         <v>20</v>
@@ -14556,19 +14556,19 @@
         <v>29</v>
       </c>
       <c r="P174">
-        <v>61.687170999999999</v>
+        <v>54.886349000000003</v>
       </c>
       <c r="Q174">
-        <v>-73.674668999999994</v>
+        <v>-100.024002</v>
       </c>
       <c r="R174" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="S174" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>61</v>
       </c>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
         <v>20</v>
@@ -14638,28 +14638,28 @@
         <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="E176" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="F176" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="G176" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="H176" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I176" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J176" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="K176" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="L176" t="s">
         <v>20</v>
@@ -14674,19 +14674,19 @@
         <v>29</v>
       </c>
       <c r="P176">
-        <v>48.532147999999999</v>
+        <v>46.657981999999997</v>
       </c>
       <c r="Q176">
-        <v>-71.156929000000005</v>
+        <v>-80.796792999999994</v>
       </c>
       <c r="R176" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="S176" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>88</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>137</v>
       </c>
@@ -14804,7 +14804,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>155</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>173</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>230</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>176</v>
       </c>
@@ -15042,7 +15042,7 @@
     </row>
     <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
@@ -15051,28 +15051,28 @@
         <v>20</v>
       </c>
       <c r="D183" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E183" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="F183" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G183" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H183" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I183" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="J183" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="K183" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="L183" t="s">
         <v>20</v>
@@ -15087,19 +15087,19 @@
         <v>29</v>
       </c>
       <c r="P183">
-        <v>49.1691</v>
+        <v>48.532147999999999</v>
       </c>
       <c r="Q183">
-        <v>-89.610500000000002</v>
+        <v>-71.156929000000005</v>
       </c>
       <c r="R183" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="S183" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>254</v>
       </c>
@@ -15160,7 +15160,7 @@
     </row>
     <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B185" t="s">
         <v>20</v>
@@ -15169,28 +15169,28 @@
         <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="E185" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="F185" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="G185" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="H185" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I185" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J185" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="K185" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="L185" t="s">
         <v>20</v>
@@ -15205,21 +15205,21 @@
         <v>29</v>
       </c>
       <c r="P185">
-        <v>50.629170000000002</v>
+        <v>48.411499999999997</v>
       </c>
       <c r="Q185">
-        <v>-105.26167</v>
+        <v>-77.809340000000006</v>
       </c>
       <c r="R185" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="S185" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
         <v>20</v>
@@ -15228,28 +15228,28 @@
         <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="E186" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="F186" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="G186" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="H186" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I186" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J186" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="K186" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="L186" t="s">
         <v>20</v>
@@ -15264,21 +15264,21 @@
         <v>29</v>
       </c>
       <c r="P186">
-        <v>51.930619999999998</v>
+        <v>61.420856000000001</v>
       </c>
       <c r="Q186">
-        <v>-106.068974</v>
+        <v>-74.137500000000003</v>
       </c>
       <c r="R186" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="S186" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
@@ -15287,10 +15287,10 @@
         <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E187" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F187" t="s">
         <v>154</v>
@@ -15323,21 +15323,21 @@
         <v>29</v>
       </c>
       <c r="P187">
-        <v>52.092027000000002</v>
+        <v>52.089362000000001</v>
       </c>
       <c r="Q187">
-        <v>-106.859358</v>
+        <v>-106.376992</v>
       </c>
       <c r="R187" t="s">
         <v>155</v>
       </c>
       <c r="S187" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
@@ -15346,28 +15346,28 @@
         <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="E188" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="F188" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="G188" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="H188" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I188" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J188" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="K188" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="L188" t="s">
         <v>20</v>
@@ -15382,21 +15382,21 @@
         <v>29</v>
       </c>
       <c r="P188">
-        <v>51.853043999999997</v>
+        <v>61.687170999999999</v>
       </c>
       <c r="Q188">
-        <v>-105.205794</v>
+        <v>-73.674668999999994</v>
       </c>
       <c r="R188" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="S188" t="s">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B189" t="s">
         <v>20</v>
@@ -15405,28 +15405,28 @@
         <v>20</v>
       </c>
       <c r="D189" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E189" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F189" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G189" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H189" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I189" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J189" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K189" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L189" t="s">
         <v>20</v>
@@ -15441,16 +15441,16 @@
         <v>29</v>
       </c>
       <c r="P189">
-        <v>52.089362000000001</v>
+        <v>57.7</v>
       </c>
       <c r="Q189">
-        <v>-106.376992</v>
+        <v>-129.78333000000001</v>
       </c>
       <c r="R189" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="S189" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -15512,7 +15512,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>139</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>183</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>186</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>196</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>210</v>
       </c>
@@ -15807,7 +15807,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>246</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>259</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>268</v>
       </c>
@@ -15986,7 +15986,7 @@
     </row>
     <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B199" t="s">
         <v>20</v>
@@ -15995,28 +15995,28 @@
         <v>20</v>
       </c>
       <c r="D199" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="E199" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="F199" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="G199" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="H199" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="I199" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="J199" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="K199" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="L199" t="s">
         <v>20</v>
@@ -16031,21 +16031,21 @@
         <v>29</v>
       </c>
       <c r="P199">
-        <v>52.01</v>
+        <v>54.856920000000002</v>
       </c>
       <c r="Q199">
-        <v>-107.08</v>
+        <v>-99.945099999999996</v>
       </c>
       <c r="R199" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="S199" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
         <v>20</v>
@@ -16054,28 +16054,28 @@
         <v>20</v>
       </c>
       <c r="D200" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="E200" t="s">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="F200" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="G200" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="H200" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I200" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J200" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="K200" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="L200" t="s">
         <v>20</v>
@@ -16090,21 +16090,21 @@
         <v>29</v>
       </c>
       <c r="P200">
-        <v>50.435625999999999</v>
+        <v>46.673400000000001</v>
       </c>
       <c r="Q200">
-        <v>-105.181423</v>
+        <v>-81.342699999999994</v>
       </c>
       <c r="R200" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="S200" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
     </row>
     <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B201" t="s">
         <v>20</v>
@@ -16113,28 +16113,28 @@
         <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="E201" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="F201" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="G201" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="H201" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="I201" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="J201" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K201" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="L201" t="s">
         <v>20</v>
@@ -16149,19 +16149,19 @@
         <v>29</v>
       </c>
       <c r="P201">
-        <v>50.659914000000001</v>
+        <v>50.429099999999998</v>
       </c>
       <c r="Q201">
-        <v>-101.845218</v>
+        <v>-95.450199999999995</v>
       </c>
       <c r="R201" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="S201" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>145</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>164</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>200</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>215</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>224</v>
       </c>
@@ -16456,7 +16456,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>225</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>228</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>231</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>233</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>264</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>248</v>
       </c>
@@ -16810,7 +16810,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>199</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>153</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>76</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>235</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>104</v>
       </c>
@@ -17107,7 +17107,7 @@
     </row>
     <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B218" t="s">
         <v>20</v>
@@ -17116,28 +17116,28 @@
         <v>20</v>
       </c>
       <c r="D218" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="E218" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="F218" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="G218" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="H218" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I218" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="J218" t="s">
-        <v>88</v>
+        <v>225</v>
       </c>
       <c r="K218" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="L218" t="s">
         <v>20</v>
@@ -17152,19 +17152,19 @@
         <v>29</v>
       </c>
       <c r="P218">
-        <v>63.916699999999999</v>
+        <v>55.715200000000003</v>
       </c>
       <c r="Q218">
-        <v>-135.48330000000001</v>
+        <v>-97.844399999999993</v>
       </c>
       <c r="R218" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="S218" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>64</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>97</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>161</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>194</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>100</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>170</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>206</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>245</v>
       </c>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
@@ -17647,28 +17647,28 @@
         <v>20</v>
       </c>
       <c r="D227" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="H227" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I227" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J227" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="K227" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="L227" t="s">
         <v>20</v>
@@ -17683,21 +17683,21 @@
         <v>29</v>
       </c>
       <c r="P227">
-        <v>58.068190000000001</v>
+        <v>46.381174000000001</v>
       </c>
       <c r="Q227">
-        <v>-104.54123</v>
+        <v>-81.454839000000007</v>
       </c>
       <c r="R227" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="S227" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B228" t="s">
         <v>20</v>
@@ -17706,16 +17706,16 @@
         <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="E228" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="G228" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="H228" t="s">
         <v>42</v>
@@ -17724,10 +17724,10 @@
         <v>42</v>
       </c>
       <c r="J228" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="K228" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="L228" t="s">
         <v>20</v>
@@ -17742,21 +17742,21 @@
         <v>29</v>
       </c>
       <c r="P228">
-        <v>57.207000000000001</v>
+        <v>52.01</v>
       </c>
       <c r="Q228">
-        <v>-105.64700000000001</v>
+        <v>-107.08</v>
       </c>
       <c r="R228" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="S228" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B229" t="s">
         <v>20</v>
@@ -17765,28 +17765,28 @@
         <v>20</v>
       </c>
       <c r="D229" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="H229" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="I229" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="J229" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="K229" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="L229" t="s">
         <v>20</v>
@@ -17801,21 +17801,21 @@
         <v>29</v>
       </c>
       <c r="P229">
-        <v>57.7637</v>
+        <v>56.331659000000002</v>
       </c>
       <c r="Q229">
-        <v>-105.053</v>
+        <v>-62.090854999999998</v>
       </c>
       <c r="R229" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="S229" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B230" t="s">
         <v>20</v>
@@ -17824,16 +17824,16 @@
         <v>20</v>
       </c>
       <c r="D230" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="E230" t="s">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="F230" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="G230" t="s">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c r="H230" t="s">
         <v>42</v>
@@ -17842,10 +17842,10 @@
         <v>42</v>
       </c>
       <c r="J230" t="s">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="K230" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="L230" t="s">
         <v>20</v>
@@ -17860,19 +17860,19 @@
         <v>29</v>
       </c>
       <c r="P230">
-        <v>58.347200000000001</v>
+        <v>50.415430000000001</v>
       </c>
       <c r="Q230">
-        <v>-103.8361</v>
+        <v>-107.86933000000001</v>
       </c>
       <c r="R230" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="S230" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>111</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>133</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>143</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>181</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>182</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>184</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>218</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>219</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>261</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>263</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>77</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>78</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>67</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>234</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>74</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>239</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>250</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>195</v>
       </c>
@@ -18993,7 +18993,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>129</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>212</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>136</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>213</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>240</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>270</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>65</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>98</v>
       </c>
@@ -19465,7 +19465,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>128</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>150</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>163</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>238</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>86</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>169</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>198</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>216</v>
       </c>
@@ -19937,7 +19937,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>101</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>172</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>208</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>251</v>
       </c>
@@ -20173,7 +20173,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>83</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>131</v>
       </c>
@@ -20295,11 +20295,11 @@
   <autoFilter ref="A1:T271" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Project"/>
+        <filter val="Processing"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T256">
-      <sortCondition ref="E1:E271"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:T230">
+      <sortCondition ref="D1:D271"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/Critical minerals advanced projects, mines and processing facilities.xlsx
+++ b/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/Critical minerals advanced projects, mines and processing facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/canada_metal_sustainability_db/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_03C52D3BACC0B63B03E604F054FFD21F62EE5B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D08F432-35AD-423C-83A3-56F27D6900D6}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_03C52D3BACC0B63B03E604F054FFD21F62EE5B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C35967B-BD1A-46E2-B71F-640AD6581C14}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="critical_minerals" sheetId="1" r:id="rId1"/>
@@ -3960,6 +3960,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4282,8 +4286,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4292,7 +4296,7 @@
     <col min="10" max="10" width="152.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15"/>
     <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
     <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="15"/>
     <col min="18" max="18" width="87.88671875" bestFit="1" customWidth="1"/>
@@ -4361,7 +4365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>69</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
@@ -4538,7 +4542,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>56</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58</v>
       </c>
@@ -4774,7 +4778,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>62</v>
       </c>
@@ -4892,7 +4896,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>79</v>
       </c>
@@ -4951,7 +4955,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>66</v>
       </c>
@@ -5423,7 +5427,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>71</v>
       </c>
@@ -5541,7 +5545,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>144</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>188</v>
       </c>
@@ -6603,7 +6607,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>134</v>
       </c>
@@ -7252,7 +7256,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>63</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>72</v>
       </c>
@@ -7370,7 +7374,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>112</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>132</v>
       </c>
@@ -8845,7 +8849,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>140</v>
       </c>
@@ -9494,7 +9498,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>174</v>
       </c>
@@ -12031,7 +12035,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>73</v>
       </c>
@@ -12621,7 +12625,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>81</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>68</v>
       </c>
@@ -13211,7 +13215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>80</v>
       </c>
@@ -14568,7 +14572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>61</v>
       </c>
@@ -16928,7 +16932,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>76</v>
       </c>
@@ -17164,7 +17168,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>64</v>
       </c>
@@ -18108,7 +18112,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>182</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>77</v>
       </c>
@@ -18580,7 +18584,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>78</v>
       </c>
@@ -18639,7 +18643,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>67</v>
       </c>
@@ -18757,7 +18761,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>74</v>
       </c>
@@ -19347,7 +19351,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>65</v>
       </c>
@@ -19642,7 +19646,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>238</v>
       </c>
@@ -20295,7 +20299,17 @@
   <autoFilter ref="A1:T271" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Processing"/>
+        <filter val="Project"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Past producer"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="En activité"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:T230">

--- a/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/Critical minerals advanced projects, mines and processing facilities.xlsx
+++ b/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/Critical minerals advanced projects, mines and processing facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/canada_metal_sustainability_db/data/NRCan/Critical minerals advanced projects, mines and processing facilities in Canada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_03C52D3BACC0B63B03E604F054FFD21F62EE5B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C35967B-BD1A-46E2-B71F-640AD6581C14}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_03C52D3BACC0B63B03E604F054FFD21F62EE5B85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50037EC6-23C6-4060-9F78-2E595D6C9568}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="critical_minerals" sheetId="1" r:id="rId1"/>
@@ -3960,10 +3960,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4283,11 +4279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="H256" sqref="H256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4365,7 +4360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>69</v>
       </c>
@@ -4424,7 +4419,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>115</v>
       </c>
@@ -4483,7 +4478,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
@@ -4542,7 +4537,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70</v>
       </c>
@@ -4601,7 +4596,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>56</v>
       </c>
@@ -4660,7 +4655,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59</v>
       </c>
@@ -4719,7 +4714,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>58</v>
       </c>
@@ -4778,7 +4773,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -4837,7 +4832,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>62</v>
       </c>
@@ -4896,7 +4891,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>79</v>
       </c>
@@ -4955,7 +4950,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>66</v>
       </c>
@@ -5014,7 +5009,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>95</v>
       </c>
@@ -5073,7 +5068,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>192</v>
       </c>
@@ -5132,7 +5127,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>217</v>
       </c>
@@ -5191,7 +5186,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26</v>
       </c>
@@ -5250,7 +5245,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>119</v>
       </c>
@@ -5309,7 +5304,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>204</v>
       </c>
@@ -5368,7 +5363,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>94</v>
       </c>
@@ -5427,7 +5422,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>57</v>
       </c>
@@ -5486,7 +5481,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>71</v>
       </c>
@@ -5604,7 +5599,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>165</v>
       </c>
@@ -5663,7 +5658,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>193</v>
       </c>
@@ -5722,7 +5717,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>205</v>
       </c>
@@ -5781,7 +5776,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>103</v>
       </c>
@@ -5840,7 +5835,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>209</v>
       </c>
@@ -5899,7 +5894,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>48</v>
       </c>
@@ -5958,7 +5953,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>49</v>
       </c>
@@ -6017,7 +6012,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>84</v>
       </c>
@@ -6076,7 +6071,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>121</v>
       </c>
@@ -6135,7 +6130,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>124</v>
       </c>
@@ -6194,7 +6189,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>141</v>
       </c>
@@ -6253,7 +6248,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>152</v>
       </c>
@@ -6371,7 +6366,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>189</v>
       </c>
@@ -6430,7 +6425,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>269</v>
       </c>
@@ -6489,7 +6484,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>102</v>
       </c>
@@ -6548,7 +6543,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>221</v>
       </c>
@@ -6666,7 +6661,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>114</v>
       </c>
@@ -6725,7 +6720,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>236</v>
       </c>
@@ -6784,7 +6779,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50</v>
       </c>
@@ -6843,7 +6838,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>38</v>
       </c>
@@ -6902,7 +6897,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>253</v>
       </c>
@@ -6961,7 +6956,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20</v>
       </c>
@@ -7020,7 +7015,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>130</v>
       </c>
@@ -7079,7 +7074,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>180</v>
       </c>
@@ -7138,7 +7133,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>151</v>
       </c>
@@ -7197,7 +7192,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>51</v>
       </c>
@@ -7256,7 +7251,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>63</v>
       </c>
@@ -7315,7 +7310,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>72</v>
       </c>
@@ -7433,7 +7428,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -7492,7 +7487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>85</v>
       </c>
@@ -7551,7 +7546,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>125</v>
       </c>
@@ -7610,7 +7605,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>202</v>
       </c>
@@ -7669,7 +7664,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>258</v>
       </c>
@@ -7728,7 +7723,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>40</v>
       </c>
@@ -7787,7 +7782,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>41</v>
       </c>
@@ -7846,7 +7841,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>42</v>
       </c>
@@ -7905,7 +7900,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>256</v>
       </c>
@@ -7964,7 +7959,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>135</v>
       </c>
@@ -8023,7 +8018,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>149</v>
       </c>
@@ -8141,7 +8136,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>229</v>
       </c>
@@ -8200,7 +8195,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>147</v>
       </c>
@@ -8259,7 +8254,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>117</v>
       </c>
@@ -8318,7 +8313,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>120</v>
       </c>
@@ -8377,7 +8372,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>162</v>
       </c>
@@ -8436,7 +8431,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>148</v>
       </c>
@@ -8495,7 +8490,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>108</v>
       </c>
@@ -8554,7 +8549,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>201</v>
       </c>
@@ -8613,7 +8608,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>222</v>
       </c>
@@ -8672,7 +8667,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14</v>
       </c>
@@ -8731,7 +8726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>27</v>
       </c>
@@ -8790,7 +8785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>82</v>
       </c>
@@ -8908,7 +8903,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>252</v>
       </c>
@@ -8967,7 +8962,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>255</v>
       </c>
@@ -9026,7 +9021,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>265</v>
       </c>
@@ -9085,7 +9080,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>43</v>
       </c>
@@ -9144,7 +9139,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>52</v>
       </c>
@@ -9203,7 +9198,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>87</v>
       </c>
@@ -9262,7 +9257,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>96</v>
       </c>
@@ -9321,7 +9316,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>154</v>
       </c>
@@ -9380,7 +9375,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>156</v>
       </c>
@@ -9439,7 +9434,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>159</v>
       </c>
@@ -9557,7 +9552,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>177</v>
       </c>
@@ -9616,7 +9611,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>179</v>
       </c>
@@ -9675,7 +9670,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>185</v>
       </c>
@@ -9734,7 +9729,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>39</v>
       </c>
@@ -9793,7 +9788,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>8</v>
       </c>
@@ -9852,7 +9847,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>44</v>
       </c>
@@ -9911,7 +9906,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>36</v>
       </c>
@@ -9970,7 +9965,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>37</v>
       </c>
@@ -10029,7 +10024,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>13</v>
       </c>
@@ -10088,7 +10083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -10147,7 +10142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -10206,7 +10201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>247</v>
       </c>
@@ -10265,7 +10260,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>267</v>
       </c>
@@ -10324,7 +10319,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>54</v>
       </c>
@@ -10383,7 +10378,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>158</v>
       </c>
@@ -10442,7 +10437,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>191</v>
       </c>
@@ -10501,7 +10496,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>122</v>
       </c>
@@ -10560,7 +10555,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>126</v>
       </c>
@@ -10619,7 +10614,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>178</v>
       </c>
@@ -10678,7 +10673,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18</v>
       </c>
@@ -10737,7 +10732,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>166</v>
       </c>
@@ -10796,7 +10791,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>92</v>
       </c>
@@ -10855,7 +10850,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>127</v>
       </c>
@@ -10914,7 +10909,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>175</v>
       </c>
@@ -10973,7 +10968,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>220</v>
       </c>
@@ -11032,7 +11027,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>223</v>
       </c>
@@ -11091,7 +11086,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>90</v>
       </c>
@@ -11150,7 +11145,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>123</v>
       </c>
@@ -11209,7 +11204,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>138</v>
       </c>
@@ -11268,7 +11263,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>190</v>
       </c>
@@ -11327,7 +11322,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>241</v>
       </c>
@@ -11386,7 +11381,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>244</v>
       </c>
@@ -11445,7 +11440,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>262</v>
       </c>
@@ -11504,7 +11499,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>232</v>
       </c>
@@ -11563,7 +11558,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>211</v>
       </c>
@@ -11622,7 +11617,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>214</v>
       </c>
@@ -11681,7 +11676,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>197</v>
       </c>
@@ -11740,7 +11735,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>249</v>
       </c>
@@ -11799,7 +11794,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>33</v>
       </c>
@@ -11858,7 +11853,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>89</v>
       </c>
@@ -11917,7 +11912,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>109</v>
       </c>
@@ -11976,7 +11971,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>226</v>
       </c>
@@ -12035,7 +12030,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>73</v>
       </c>
@@ -12094,7 +12089,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>242</v>
       </c>
@@ -12153,7 +12148,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>113</v>
       </c>
@@ -12212,7 +12207,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>93</v>
       </c>
@@ -12271,7 +12266,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>266</v>
       </c>
@@ -12330,7 +12325,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>116</v>
       </c>
@@ -12389,7 +12384,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>167</v>
       </c>
@@ -12448,7 +12443,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>91</v>
       </c>
@@ -12507,7 +12502,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>106</v>
       </c>
@@ -12566,7 +12561,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>187</v>
       </c>
@@ -12625,7 +12620,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>81</v>
       </c>
@@ -12684,7 +12679,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>107</v>
       </c>
@@ -12743,7 +12738,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>68</v>
       </c>
@@ -12802,7 +12797,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>25</v>
       </c>
@@ -12861,7 +12856,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>257</v>
       </c>
@@ -12920,7 +12915,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>110</v>
       </c>
@@ -12979,7 +12974,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>99</v>
       </c>
@@ -13038,7 +13033,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>160</v>
       </c>
@@ -13097,7 +13092,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>227</v>
       </c>
@@ -13156,7 +13151,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>15</v>
       </c>
@@ -13215,7 +13210,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>80</v>
       </c>
@@ -13274,7 +13269,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>142</v>
       </c>
@@ -13333,7 +13328,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>168</v>
       </c>
@@ -13392,7 +13387,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>28</v>
       </c>
@@ -13451,7 +13446,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>146</v>
       </c>
@@ -13510,7 +13505,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>207</v>
       </c>
@@ -13569,7 +13564,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>260</v>
       </c>
@@ -13628,7 +13623,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -13687,7 +13682,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>171</v>
       </c>
@@ -13746,7 +13741,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>118</v>
       </c>
@@ -13805,7 +13800,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>243</v>
       </c>
@@ -13864,7 +13859,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -13923,7 +13918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>53</v>
       </c>
@@ -13982,7 +13977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>5</v>
       </c>
@@ -14041,7 +14036,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>32</v>
       </c>
@@ -14100,7 +14095,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>21</v>
       </c>
@@ -14159,7 +14154,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2</v>
       </c>
@@ -14218,7 +14213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7</v>
       </c>
@@ -14277,7 +14272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>19</v>
       </c>
@@ -14336,7 +14331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>23</v>
       </c>
@@ -14395,7 +14390,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>203</v>
       </c>
@@ -14454,7 +14449,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>105</v>
       </c>
@@ -14513,7 +14508,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>16</v>
       </c>
@@ -14572,7 +14567,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>61</v>
       </c>
@@ -14631,7 +14626,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>10</v>
       </c>
@@ -14690,7 +14685,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>88</v>
       </c>
@@ -14749,7 +14744,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>137</v>
       </c>
@@ -14808,7 +14803,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>155</v>
       </c>
@@ -14867,7 +14862,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>173</v>
       </c>
@@ -14926,7 +14921,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>230</v>
       </c>
@@ -14985,7 +14980,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>176</v>
       </c>
@@ -15044,7 +15039,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>22</v>
       </c>
@@ -15103,7 +15098,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>254</v>
       </c>
@@ -15162,7 +15157,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>34</v>
       </c>
@@ -15221,7 +15216,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>6</v>
       </c>
@@ -15280,7 +15275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>29</v>
       </c>
@@ -15339,7 +15334,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>11</v>
       </c>
@@ -15398,7 +15393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>24</v>
       </c>
@@ -15457,7 +15452,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>30</v>
       </c>
@@ -15516,7 +15511,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>139</v>
       </c>
@@ -15575,7 +15570,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>183</v>
       </c>
@@ -15634,7 +15629,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>186</v>
       </c>
@@ -15693,7 +15688,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>196</v>
       </c>
@@ -15752,7 +15747,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>210</v>
       </c>
@@ -15811,7 +15806,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>246</v>
       </c>
@@ -15870,7 +15865,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>259</v>
       </c>
@@ -15929,7 +15924,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>268</v>
       </c>
@@ -15988,7 +15983,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>17</v>
       </c>
@@ -16047,7 +16042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>12</v>
       </c>
@@ -16106,7 +16101,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>35</v>
       </c>
@@ -16165,7 +16160,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>145</v>
       </c>
@@ -16224,7 +16219,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>164</v>
       </c>
@@ -16283,7 +16278,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>200</v>
       </c>
@@ -16342,7 +16337,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>215</v>
       </c>
@@ -16401,7 +16396,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>224</v>
       </c>
@@ -16460,7 +16455,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>225</v>
       </c>
@@ -16519,7 +16514,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>228</v>
       </c>
@@ -16578,7 +16573,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>231</v>
       </c>
@@ -16637,7 +16632,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>233</v>
       </c>
@@ -16696,7 +16691,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>264</v>
       </c>
@@ -16755,7 +16750,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>248</v>
       </c>
@@ -16814,7 +16809,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>199</v>
       </c>
@@ -16873,7 +16868,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>153</v>
       </c>
@@ -16932,7 +16927,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>76</v>
       </c>
@@ -16991,7 +16986,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>235</v>
       </c>
@@ -17050,7 +17045,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>104</v>
       </c>
@@ -17109,7 +17104,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>45</v>
       </c>
@@ -17168,7 +17163,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>64</v>
       </c>
@@ -17227,7 +17222,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>97</v>
       </c>
@@ -17286,7 +17281,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>161</v>
       </c>
@@ -17345,7 +17340,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>194</v>
       </c>
@@ -17404,7 +17399,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>100</v>
       </c>
@@ -17463,7 +17458,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>170</v>
       </c>
@@ -17522,7 +17517,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>206</v>
       </c>
@@ -17581,7 +17576,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>245</v>
       </c>
@@ -17640,7 +17635,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>46</v>
       </c>
@@ -17699,7 +17694,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>31</v>
       </c>
@@ -17758,7 +17753,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>47</v>
       </c>
@@ -17817,7 +17812,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>55</v>
       </c>
@@ -17876,7 +17871,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>111</v>
       </c>
@@ -17935,7 +17930,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>133</v>
       </c>
@@ -17994,7 +17989,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>143</v>
       </c>
@@ -18053,7 +18048,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>181</v>
       </c>
@@ -18171,7 +18166,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>184</v>
       </c>
@@ -18230,7 +18225,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>218</v>
       </c>
@@ -18289,7 +18284,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>219</v>
       </c>
@@ -18348,7 +18343,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -18407,7 +18402,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>261</v>
       </c>
@@ -18466,7 +18461,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>263</v>
       </c>
@@ -18525,7 +18520,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>77</v>
       </c>
@@ -18584,7 +18579,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>78</v>
       </c>
@@ -18643,7 +18638,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>67</v>
       </c>
@@ -18702,7 +18697,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>234</v>
       </c>
@@ -18761,7 +18756,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>74</v>
       </c>
@@ -18820,7 +18815,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>239</v>
       </c>
@@ -18879,7 +18874,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>250</v>
       </c>
@@ -18938,7 +18933,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>195</v>
       </c>
@@ -18997,7 +18992,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>129</v>
       </c>
@@ -19056,7 +19051,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>212</v>
       </c>
@@ -19115,7 +19110,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>136</v>
       </c>
@@ -19174,7 +19169,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>213</v>
       </c>
@@ -19233,7 +19228,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>240</v>
       </c>
@@ -19292,7 +19287,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>270</v>
       </c>
@@ -19351,7 +19346,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>65</v>
       </c>
@@ -19410,7 +19405,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>98</v>
       </c>
@@ -19469,7 +19464,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>128</v>
       </c>
@@ -19528,7 +19523,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>150</v>
       </c>
@@ -19587,7 +19582,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>163</v>
       </c>
@@ -19705,7 +19700,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>86</v>
       </c>
@@ -19764,7 +19759,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>169</v>
       </c>
@@ -19823,7 +19818,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>198</v>
       </c>
@@ -19882,7 +19877,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>216</v>
       </c>
@@ -19941,7 +19936,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>101</v>
       </c>
@@ -20000,7 +19995,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>172</v>
       </c>
@@ -20059,7 +20054,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>208</v>
       </c>
@@ -20118,7 +20113,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>251</v>
       </c>
@@ -20177,7 +20172,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>83</v>
       </c>
@@ -20236,7 +20231,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>131</v>
       </c>
@@ -20296,26 +20291,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T271" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Project"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Past producer"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="En activité"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:T230">
-      <sortCondition ref="D1:D271"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:T271" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
